--- a/course-attendee.xlsx
+++ b/course-attendee.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\parth\OneDrive\Documents\Unique-Assignment-Project\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6681702F-6640-4C0A-860E-B95B0908B9B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="130">
   <si>
     <t>Student Id</t>
   </si>
@@ -402,28 +407,23 @@
   </si>
   <si>
     <t>urnisha.chakma@g.bracu.ac.bd</t>
+  </si>
+  <si>
+    <t>TAHSIN AHMED CHOWDHURY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -465,22 +465,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -770,27 +778,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:F40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:F39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.854" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="30.564" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.141" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="9.283" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="13.997" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="45.846" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -810,7 +815,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>21301185</v>
       </c>
@@ -830,7 +835,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>21301734</v>
       </c>
@@ -850,7 +855,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>22101557</v>
       </c>
@@ -870,7 +875,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>22201994</v>
       </c>
@@ -890,7 +895,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>22221137</v>
       </c>
@@ -910,7 +915,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>22221177</v>
       </c>
@@ -930,7 +935,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>22299450</v>
       </c>
@@ -950,7 +955,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>23201223</v>
       </c>
@@ -970,7 +975,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>23201370</v>
       </c>
@@ -990,7 +995,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>23201372</v>
       </c>
@@ -1010,7 +1015,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>23201392</v>
       </c>
@@ -1030,7 +1035,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>23201433</v>
       </c>
@@ -1050,7 +1055,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>23201593</v>
       </c>
@@ -1070,7 +1075,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>23221023</v>
       </c>
@@ -1090,7 +1095,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>23301444</v>
       </c>
@@ -1110,7 +1115,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>23321027</v>
       </c>
@@ -1130,7 +1135,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>23341043</v>
       </c>
@@ -1150,7 +1155,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>24101042</v>
       </c>
@@ -1170,7 +1175,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>24101079</v>
       </c>
@@ -1190,7 +1195,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>24101101</v>
       </c>
@@ -1210,7 +1215,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>24101128</v>
       </c>
@@ -1230,7 +1235,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>24101130</v>
       </c>
@@ -1250,7 +1255,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>24101194</v>
       </c>
@@ -1270,7 +1275,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>24101395</v>
       </c>
@@ -1290,7 +1295,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>24101490</v>
       </c>
@@ -1310,7 +1315,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>24101491</v>
       </c>
@@ -1330,7 +1335,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>24101515</v>
       </c>
@@ -1350,7 +1355,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>24101551</v>
       </c>
@@ -1370,7 +1375,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>24121142</v>
       </c>
@@ -1390,7 +1395,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>24121143</v>
       </c>
@@ -1410,7 +1415,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>24121270</v>
       </c>
@@ -1430,7 +1435,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>24141015</v>
       </c>
@@ -1450,7 +1455,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>24141134</v>
       </c>
@@ -1470,7 +1475,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>24221202</v>
       </c>
@@ -1490,7 +1495,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>24301136</v>
       </c>
@@ -1510,7 +1515,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>24301219</v>
       </c>
@@ -1530,7 +1535,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>24301509</v>
       </c>
@@ -1550,7 +1555,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>24310009</v>
       </c>
@@ -1570,7 +1575,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>24321046</v>
       </c>
@@ -1590,9 +1595,23 @@
         <v>128</v>
       </c>
     </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" s="1">
+        <v>21201403</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+    </row>
   </sheetData>
-  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
 </worksheet>
 </file>
--- a/course-attendee.xlsx
+++ b/course-attendee.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\parth\OneDrive\Documents\Unique-Assignment-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B99FA8AE-B1FA-41CD-BFB1-652F822E20E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB310BB-5782-4007-90BF-2EBCD904E8FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E5D7FA2F-1EA7-4EE4-87E7-9056A0543AF4}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>Gender</t>
   </si>
@@ -28,15 +28,6 @@
     <t>Program</t>
   </si>
   <si>
-    <t>Shahida Hossain</t>
-  </si>
-  <si>
-    <t>shahida.hossain.7213@bracu.edu.bd</t>
-  </si>
-  <si>
-    <t>01612278187</t>
-  </si>
-  <si>
     <t>Sami Islam</t>
   </si>
   <si>
@@ -46,63 +37,9 @@
     <t>01665051440</t>
   </si>
   <si>
-    <t>Nusrat Miah</t>
-  </si>
-  <si>
-    <t>nusrat.miah.2256@bracu.edu.bd</t>
-  </si>
-  <si>
-    <t>01966075588</t>
-  </si>
-  <si>
-    <t>Taslima Chowdhury</t>
-  </si>
-  <si>
-    <t>taslima.chowdhury.6644@bracu.edu.bd</t>
-  </si>
-  <si>
-    <t>01102301100</t>
-  </si>
-  <si>
-    <t>Rafiq Roy</t>
-  </si>
-  <si>
-    <t>rafiq.roy.9507@bracu.edu.bd</t>
-  </si>
-  <si>
-    <t>01303461593</t>
-  </si>
-  <si>
-    <t>Nusrat Islam</t>
-  </si>
-  <si>
-    <t>nusrat.islam.0816@bracu.edu.bd</t>
-  </si>
-  <si>
-    <t>01541541211</t>
-  </si>
-  <si>
-    <t>Nazmul Kabir</t>
-  </si>
-  <si>
-    <t>nazmul.kabir.1231@bracu.edu.bd</t>
-  </si>
-  <si>
-    <t>01362514778</t>
-  </si>
-  <si>
     <t>01351617010</t>
   </si>
   <si>
-    <t>Rafiq Hossain</t>
-  </si>
-  <si>
-    <t>rafiq.hossain.7957@bracu.edu.bd</t>
-  </si>
-  <si>
-    <t>01322827164</t>
-  </si>
-  <si>
     <t>Sami Rahman</t>
   </si>
   <si>
@@ -128,9 +65,6 @@
   </si>
   <si>
     <t>CS</t>
-  </si>
-  <si>
-    <t>EEE</t>
   </si>
   <si>
     <t>Mobile No</t>
@@ -1055,10 +989,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C53E27C-A99B-4292-8B91-165DB3AC429F}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1074,10 +1008,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -1086,10 +1020,10 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -1097,19 +1031,19 @@
         <v>24110069</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -1117,19 +1051,19 @@
         <v>24142942</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -1137,164 +1071,24 @@
         <v>24165329</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
-        <v>24217957</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="3">
-        <v>24219507</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="3">
-        <v>24256644</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="3">
-        <v>24277213</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="3" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="3">
-        <v>24310816</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="3">
-        <v>24312256</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="3">
-        <v>24341231</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F11">
-    <sortCondition ref="A2:A11"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F4">
+    <sortCondition ref="A2:A4"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
